--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_22.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1364917.894088471</v>
+        <v>1332494.173824346</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564202</v>
+        <v>189902.9539564205</v>
       </c>
     </row>
     <row r="8">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>122.472125535288</v>
+        <v>115.4369483116074</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>63.57678144609376</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>99.34508049624304</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>339.0399185806818</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>104.5113366705979</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250842</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>18.37682225755684</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>99.90187484148926</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>162.0432948109163</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>33.20988753395294</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -1312,7 +1312,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>279.9387901805688</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1531,22 +1531,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>63.57678144609353</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>62.8852869272437</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>191.9935735981708</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>156.127162662147</v>
       </c>
       <c r="T16" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>230.2634979541059</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1853,10 +1853,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>124.9606961356349</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>334.58170967322</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>156.127162662147</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>174.2425642047096</v>
+        <v>26.64360395382583</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2239,19 +2239,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>321.7064610691125</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>43.53636164073718</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2479,22 +2479,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>62.56386682245585</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>236.7139500600954</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>376.0368885193218</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2612,16 +2612,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>323.9918595228955</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>35.85115782931148</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>56.88196987815806</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2795,19 +2795,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>323.9918595228949</v>
       </c>
       <c r="H29" t="n">
-        <v>85.42957511242997</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2849,16 +2849,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -3001,10 +3001,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="U31" t="n">
-        <v>128.7835007017902</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3032,13 +3032,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>381.6269365471937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3083,10 +3083,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>81.12200652863734</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>43.31785343913925</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3244,16 +3244,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,19 +3266,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>275.7703750300828</v>
+        <v>284.5615160058696</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,25 +3311,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>83.59830597394826</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>189.5968436493441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3512,10 +3512,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>308.1287436566721</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>26.94389492651078</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>155.2114886365804</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>43.31785343914003</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3721,13 +3721,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>102.4163325400866</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3898,10 +3898,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>132.997194893274</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3952,19 +3952,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>128.7835007017902</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>295.9707132341636</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4037,10 +4037,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4186,13 +4186,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>155.886038567534</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>863.1126181035243</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C2" t="n">
-        <v>863.1126181035243</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="D2" t="n">
-        <v>504.8469194967738</v>
+        <v>588.5097680147103</v>
       </c>
       <c r="E2" t="n">
-        <v>504.8469194967738</v>
+        <v>588.5097680147103</v>
       </c>
       <c r="F2" t="n">
-        <v>504.8469194967738</v>
+        <v>588.5097680147103</v>
       </c>
       <c r="G2" t="n">
-        <v>504.8469194967738</v>
+        <v>170.5459599128972</v>
       </c>
       <c r="H2" t="n">
-        <v>177.6521995327766</v>
+        <v>170.5459599128972</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404538</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>1639.851790143458</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y2" t="n">
-        <v>1249.712458167646</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,28 +4410,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>663.910013048764</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="C4" t="n">
-        <v>663.910013048764</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="D4" t="n">
-        <v>663.910013048764</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="E4" t="n">
-        <v>663.910013048764</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="F4" t="n">
-        <v>517.0200655508536</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>663.910013048764</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>663.910013048764</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>663.910013048764</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="U4" t="n">
-        <v>663.910013048764</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="V4" t="n">
-        <v>663.910013048764</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="W4" t="n">
-        <v>663.910013048764</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="X4" t="n">
-        <v>663.910013048764</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="Y4" t="n">
-        <v>663.910013048764</v>
+        <v>235.9284171545818</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>159.5099885583422</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C5" t="n">
-        <v>159.5099885583422</v>
+        <v>1551.447402037878</v>
       </c>
       <c r="D5" t="n">
-        <v>159.5099885583422</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E5" t="n">
-        <v>159.5099885583422</v>
+        <v>807.393450832883</v>
       </c>
       <c r="F5" t="n">
-        <v>159.5099885583422</v>
+        <v>396.4075460432754</v>
       </c>
       <c r="G5" t="n">
-        <v>159.5099885583422</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>159.5099885583422</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4580,37 +4580,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982757</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y5" t="n">
-        <v>546.109828622464</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4689,7 +4689,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,7 +4732,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
         <v>529.6040388502502</v>
@@ -4741,34 +4741,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T7" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064346</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1595.875667274027</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C8" t="n">
-        <v>1595.875667274027</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2533.46899524962</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2279.707209887712</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1948.644322544141</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1595.875667274027</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1595.875667274027</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y8" t="n">
-        <v>1595.875667274027</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4887,43 +4887,43 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816297</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1637.643464250441</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C11" t="n">
-        <v>1268.680947310029</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D11" t="n">
-        <v>1268.680947310029</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E11" t="n">
-        <v>882.8926947117851</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F11" t="n">
-        <v>471.9067899221776</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5081,10 +5081,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X11" t="n">
-        <v>2414.382636290375</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y11" t="n">
-        <v>2024.243304314563</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="12">
@@ -5115,13 +5115,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
         <v>713.8062203571349</v>
@@ -5130,10 +5130,10 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
         <v>2525.076107152626</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064342</v>
+        <v>548.5954256477204</v>
       </c>
       <c r="E13" t="n">
-        <v>663.910013048764</v>
+        <v>400.6823320653273</v>
       </c>
       <c r="F13" t="n">
-        <v>517.0200655508536</v>
+        <v>253.7923845674169</v>
       </c>
       <c r="G13" t="n">
-        <v>348.0202652891861</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H13" t="n">
         <v>190.2718927217162</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5218,31 +5218,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1546.944160717209</v>
+        <v>1192.157102157134</v>
       </c>
       <c r="C14" t="n">
-        <v>1177.981643776797</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D14" t="n">
-        <v>1177.981643776797</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E14" t="n">
-        <v>792.1933911785532</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F14" t="n">
-        <v>381.2074863889456</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
         <v>53.94298182036445</v>
@@ -5276,13 +5276,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5306,22 +5306,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2503.216188393807</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>2249.454403031899</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>1918.391515688328</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>1565.622860418214</v>
       </c>
       <c r="X14" t="n">
-        <v>2323.683332757143</v>
+        <v>1192.157102157134</v>
       </c>
       <c r="Y14" t="n">
-        <v>1933.544000781331</v>
+        <v>1192.157102157134</v>
       </c>
     </row>
     <row r="15">
@@ -5370,10 +5370,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5461,10 +5461,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>513.8405610245969</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T16" t="n">
-        <v>286.5323736931987</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U16" t="n">
         <v>53.94298182036445</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1293.182375355301</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C17" t="n">
-        <v>924.2198584148894</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="D17" t="n">
-        <v>565.9541598081389</v>
+        <v>1188.678462110459</v>
       </c>
       <c r="E17" t="n">
-        <v>180.1659072098947</v>
+        <v>802.8902095122144</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036446</v>
+        <v>391.9043047226068</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>2069.921547395234</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y17" t="n">
-        <v>1679.782215419423</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="18">
@@ -5589,10 +5589,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
         <v>309.190302261463</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5698,25 +5698,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>343.1165921657965</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U19" t="n">
-        <v>53.94298182036446</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1386.09000478155</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C20" t="n">
-        <v>1386.09000478155</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D20" t="n">
-        <v>1386.09000478155</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="E20" t="n">
-        <v>1210.087414675782</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F20" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5768,34 +5768,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U20" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V20" t="n">
-        <v>2112.324418312744</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W20" t="n">
-        <v>1759.555763042629</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X20" t="n">
-        <v>1386.09000478155</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y20" t="n">
-        <v>1386.09000478155</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="21">
@@ -5826,10 +5826,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
         <v>309.190302261463</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5935,25 +5935,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W22" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X22" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1595.875667274027</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C23" t="n">
-        <v>1595.875667274027</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D23" t="n">
-        <v>1595.875667274027</v>
+        <v>764.6872557005406</v>
       </c>
       <c r="E23" t="n">
-        <v>1210.087414675782</v>
+        <v>378.8990031022964</v>
       </c>
       <c r="F23" t="n">
-        <v>799.1015098861748</v>
+        <v>378.8990031022964</v>
       </c>
       <c r="G23" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036446</v>
@@ -5999,7 +5999,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6011,28 +6011,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2653.172968148791</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2653.172968148791</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2653.172968148791</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U23" t="n">
-        <v>2653.172968148791</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V23" t="n">
-        <v>2322.110080805221</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W23" t="n">
-        <v>1969.341425535107</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X23" t="n">
-        <v>1595.875667274027</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y23" t="n">
-        <v>1595.875667274027</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="24">
@@ -6078,13 +6078,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C25" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D25" t="n">
-        <v>664.9331591332467</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E25" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F25" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G25" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H25" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
         <v>53.94298182036446</v>
@@ -6151,46 +6151,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064344</v>
+        <v>513.840561024597</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1219.679656148628</v>
+        <v>1957.780595683986</v>
       </c>
       <c r="C26" t="n">
-        <v>850.7171392082163</v>
+        <v>1588.818078743575</v>
       </c>
       <c r="D26" t="n">
-        <v>850.7171392082163</v>
+        <v>1230.552380136824</v>
       </c>
       <c r="E26" t="n">
-        <v>464.928886609972</v>
+        <v>844.7641275385799</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036446</v>
+        <v>433.7782227489724</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
         <v>881.2824271224075</v>
@@ -6242,34 +6242,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V26" t="n">
-        <v>2369.884586449642</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W26" t="n">
-        <v>2369.884586449642</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X26" t="n">
-        <v>1996.418828188562</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y26" t="n">
-        <v>1606.27949621275</v>
+        <v>2344.380435748108</v>
       </c>
     </row>
     <row r="27">
@@ -6300,10 +6300,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
         <v>309.190302261463</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>259.1560728187103</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>259.1560728187103</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>259.1560728187103</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064344</v>
+        <v>670.6724489759715</v>
       </c>
       <c r="S28" t="n">
-        <v>513.8405610245972</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="T28" t="n">
-        <v>513.8405610245972</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="U28" t="n">
-        <v>513.8405610245972</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="V28" t="n">
-        <v>259.1560728187103</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W28" t="n">
-        <v>259.1560728187103</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X28" t="n">
-        <v>259.1560728187103</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y28" t="n">
-        <v>259.1560728187103</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1253.251950079336</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C29" t="n">
-        <v>884.2894331389248</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D29" t="n">
-        <v>526.0237345321743</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E29" t="n">
-        <v>140.2354819339301</v>
+        <v>792.1933911785527</v>
       </c>
       <c r="F29" t="n">
-        <v>140.2354819339301</v>
+        <v>381.2074863889451</v>
       </c>
       <c r="G29" t="n">
-        <v>140.2354819339301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N29" t="n">
         <v>1836.345445977174</v>
@@ -6479,34 +6479,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W29" t="n">
-        <v>2013.317548404538</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X29" t="n">
-        <v>1639.851790143458</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y29" t="n">
-        <v>1639.851790143458</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="30">
@@ -6537,22 +6537,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
         <v>2188.831293537797</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064344</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U31" t="n">
-        <v>598.044640063212</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V31" t="n">
-        <v>343.3601518573251</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1194.175505447095</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C32" t="n">
-        <v>825.2129885066831</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D32" t="n">
-        <v>825.2129885066831</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E32" t="n">
-        <v>439.4247359084389</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F32" t="n">
         <v>53.94298182036445</v>
@@ -6698,7 +6698,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733127</v>
@@ -6710,7 +6710,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6731,19 +6731,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W32" t="n">
-        <v>2344.380435748108</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X32" t="n">
-        <v>1970.914677487028</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y32" t="n">
-        <v>1580.775345511217</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="33">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>184.027325963587</v>
+        <v>2066.718496146435</v>
       </c>
       <c r="C34" t="n">
-        <v>184.027325963587</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D34" t="n">
-        <v>184.027325963587</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E34" t="n">
-        <v>184.027325963587</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F34" t="n">
-        <v>184.027325963587</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G34" t="n">
-        <v>184.027325963587</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V34" t="n">
-        <v>473.4444960005476</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W34" t="n">
-        <v>184.027325963587</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X34" t="n">
-        <v>184.027325963587</v>
+        <v>2469.159540120205</v>
       </c>
       <c r="Y34" t="n">
-        <v>184.027325963587</v>
+        <v>2248.366960976675</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>743.484820983793</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C35" t="n">
-        <v>743.484820983793</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D35" t="n">
-        <v>743.484820983793</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E35" t="n">
-        <v>743.484820983793</v>
+        <v>752.3647613633757</v>
       </c>
       <c r="F35" t="n">
-        <v>332.4989161941855</v>
+        <v>341.3788565737681</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2478.514423990286</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2224.752638628377</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V35" t="n">
-        <v>1893.689751284806</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W35" t="n">
-        <v>1893.689751284806</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X35" t="n">
-        <v>1520.223993023727</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y35" t="n">
-        <v>1130.084661047915</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6990,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204941</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7035,22 +7035,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036446</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036446</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036446</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036446</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036446</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064344</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064344</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064344</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="U37" t="n">
-        <v>536.6170209242687</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="V37" t="n">
-        <v>281.9325327183818</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="W37" t="n">
-        <v>281.9325327183818</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036446</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036446</v>
+        <v>2107.405821939171</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1520.223993023727</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C38" t="n">
-        <v>1520.223993023727</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D38" t="n">
-        <v>1161.958294416976</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E38" t="n">
-        <v>776.1700418187318</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F38" t="n">
-        <v>365.1841370291242</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2224.752638628377</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>1893.689751284806</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="W38" t="n">
-        <v>1893.689751284806</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X38" t="n">
-        <v>1520.223993023727</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y38" t="n">
-        <v>1520.223993023727</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="39">
@@ -7248,19 +7248,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517453</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S40" t="n">
-        <v>684.3735766921516</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T40" t="n">
-        <v>684.3735766921516</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U40" t="n">
-        <v>684.3735766921516</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V40" t="n">
-        <v>684.3735766921516</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W40" t="n">
-        <v>684.3735766921516</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X40" t="n">
-        <v>456.3840257941342</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="Y40" t="n">
-        <v>235.5914466506042</v>
+        <v>2179.742370083244</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1422.14692331494</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C41" t="n">
-        <v>1422.14692331494</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D41" t="n">
-        <v>1422.14692331494</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E41" t="n">
-        <v>1036.358670716696</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F41" t="n">
-        <v>625.3727659270879</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2302.336936304456</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2198.886095354873</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2198.886095354873</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>2198.886095354873</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X41" t="n">
-        <v>2198.886095354873</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y41" t="n">
-        <v>1808.746763379062</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="42">
@@ -7485,16 +7485,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M42" t="n">
         <v>1194.968834417902</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036446</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036446</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036446</v>
+        <v>188.2835827226615</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036446</v>
+        <v>188.2835827226615</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036446</v>
+        <v>188.2835827226615</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>598.044640063212</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V43" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036446</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1567.641263708175</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C44" t="n">
-        <v>1268.68094731003</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D44" t="n">
-        <v>1268.68094731003</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117852</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G44" t="n">
         <v>53.94298182036445</v>
@@ -7646,13 +7646,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7685,13 +7685,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W44" t="n">
-        <v>2344.380435748108</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X44" t="n">
-        <v>2344.380435748108</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y44" t="n">
-        <v>1954.241103772296</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7725,49 +7725,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7810,34 +7810,34 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>343.360151857325</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V46" t="n">
         <v>343.360151857325</v>
@@ -8058,7 +8058,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8778,13 +8778,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9018,13 +9018,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928329</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9726,7 +9726,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928319</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10203,7 +10203,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10440,7 +10440,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>350.4438349360588</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,7 +10674,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,7 +10911,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627889</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.513533492832</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>29.45919070957324</v>
+        <v>36.49436793325387</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,10 +22592,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -22604,10 +22604,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22714,19 +22714,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,16 +22747,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>83.08841053406407</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>125.6900249618412</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -22784,25 +22784,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>74.74425144011315</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>47.41997957426331</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,25 +22829,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22948,22 +22948,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890123</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,10 +22984,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
-        <v>46.76331713866857</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -22996,10 +22996,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23018,13 +23018,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23033,10 +23033,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -23072,22 +23072,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>54.40502554674151</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23185,10 +23185,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>112.2111604889783</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -23200,7 +23200,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,10 +23221,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23321,7 +23321,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>89.79231049790025</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,25 +23419,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.85718120047564</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>104.4245153318072</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
@@ -23492,22 +23492,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>89.79231049789962</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>24.45474675948699</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23671,10 +23671,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23695,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>56.01837628787186</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23741,10 +23741,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>281.9153496060765</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>79.20246034757503</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23786,7 +23786,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23938,16 +23938,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>56.01837628787186</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23966,25 +23966,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>207.6878058675522</v>
+        <v>355.2867661184359</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24023,7 +24023,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24127,28 +24127,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,22 +24169,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>21.87414536972213</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,25 +24203,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>92.07770895168244</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>10.94204093407452</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24263,16 +24263,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24367,25 +24367,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>86.05160619575651</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>49.56792418188229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24446,7 +24446,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>37.74728150147314</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24500,16 +24500,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>3.760398947239423</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,13 +24607,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>110.5828048172577</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24622,7 +24622,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>89.7832221019998</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24683,19 +24683,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049790008</v>
       </c>
       <c r="H29" t="n">
-        <v>238.4931976519272</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24737,16 +24737,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24859,7 +24859,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>96.25160475629417</v>
       </c>
       <c r="U31" t="n">
-        <v>157.4983735401875</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24920,13 +24920,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>25.24910919451776</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24971,10 +24971,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>170.102160979652</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9289676594886</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25090,13 +25090,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>27.38738814000484</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25132,16 +25132,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25154,19 +25154,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>138.0137949907122</v>
+        <v>129.2226540149254</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25199,25 +25199,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>83.71149628510265</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25333,7 +25333,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,25 +25357,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>96.68503059263364</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25388,10 +25388,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25400,10 +25400,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>105.6554263641229</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,28 +25436,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>300.8083635436241</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>24.62049154535694</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25570,7 +25570,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>168.8276855108789</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
@@ -25609,13 +25609,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25640,13 +25640,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,16 +25673,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>148.8078349682027</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25691,7 +25691,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25786,10 +25786,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>34.31260736577687</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25807,7 +25807,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25840,19 +25840,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>157.4983735401875</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>69.30217853684394</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25925,10 +25925,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26044,7 +26044,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,19 +26068,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3958356744437</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>711682.0831084221</v>
+        <v>711682.083108422</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>711682.083108422</v>
+        <v>711682.0831084221</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>711682.0831084221</v>
+        <v>711682.083108422</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>711682.083108422</v>
+        <v>711682.0831084221</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>711682.0831084221</v>
+        <v>711682.083108422</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>711682.0831084221</v>
+        <v>711682.083108422</v>
       </c>
     </row>
     <row r="15">
@@ -26314,7 +26314,7 @@
         <v>318067.8710173335</v>
       </c>
       <c r="C2" t="n">
-        <v>318067.8710173334</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="D2" t="n">
         <v>318067.8710173335</v>
@@ -26326,25 +26326,25 @@
         <v>318067.8710173335</v>
       </c>
       <c r="G2" t="n">
-        <v>318067.8710173334</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="H2" t="n">
-        <v>318067.8710173332</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="I2" t="n">
         <v>318067.8710173335</v>
       </c>
       <c r="J2" t="n">
-        <v>318067.8710173335</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="K2" t="n">
+        <v>318067.8710173333</v>
+      </c>
+      <c r="L2" t="n">
         <v>318067.8710173334</v>
       </c>
-      <c r="L2" t="n">
-        <v>318067.8710173335</v>
-      </c>
       <c r="M2" t="n">
-        <v>318067.8710173335</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="N2" t="n">
         <v>318067.8710173335</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="C4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="D4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="E4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="F4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="G4" t="n">
-        <v>14353.59214796874</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="H4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="I4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="J4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="K4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="L4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="M4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="N4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="O4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="P4" t="n">
-        <v>14353.59214796873</v>
+        <v>18228.92756966326</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26482,31 +26482,31 @@
         <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
         <v>49231.47806340946</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-369112.6784085892</v>
+        <v>-372988.0138302837</v>
       </c>
       <c r="C6" t="n">
-        <v>220855.2008059552</v>
+        <v>216979.8653842607</v>
       </c>
       <c r="D6" t="n">
-        <v>220855.2008059554</v>
+        <v>216979.8653842607</v>
       </c>
       <c r="E6" t="n">
-        <v>254482.8008059553</v>
+        <v>250607.4653842607</v>
       </c>
       <c r="F6" t="n">
-        <v>254482.8008059554</v>
+        <v>250607.4653842608</v>
       </c>
       <c r="G6" t="n">
-        <v>254482.8008059552</v>
+        <v>250607.4653842608</v>
       </c>
       <c r="H6" t="n">
-        <v>254482.800805955</v>
+        <v>250607.4653842608</v>
       </c>
       <c r="I6" t="n">
-        <v>254482.8008059553</v>
+        <v>250607.4653842608</v>
       </c>
       <c r="J6" t="n">
-        <v>78059.58161336236</v>
+        <v>74184.24619166776</v>
       </c>
       <c r="K6" t="n">
-        <v>254482.8008059552</v>
+        <v>250607.4653842606</v>
       </c>
       <c r="L6" t="n">
-        <v>254482.8008059553</v>
+        <v>250607.4653842607</v>
       </c>
       <c r="M6" t="n">
-        <v>254482.8008059553</v>
+        <v>250607.4653842607</v>
       </c>
       <c r="N6" t="n">
-        <v>254482.8008059553</v>
+        <v>250607.4653842608</v>
       </c>
       <c r="O6" t="n">
-        <v>254482.8008059552</v>
+        <v>250607.4653842606</v>
       </c>
       <c r="P6" t="n">
-        <v>254482.8008059552</v>
+        <v>250607.4653842606</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26756,28 +26756,28 @@
         <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26790,43 +26790,43 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545556</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31282,7 +31282,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31291,34 +31291,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,40 +31355,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31397,7 +31397,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,13 +31750,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31774,22 +31774,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31862,16 +31862,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,13 +31932,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31947,7 +31947,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31987,13 +31987,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32011,22 +32011,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32099,16 +32099,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,13 +32169,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32184,7 +32184,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32461,13 +32461,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32485,22 +32485,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32573,16 +32573,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32619,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32643,13 +32643,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32658,7 +32658,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32704,19 +32704,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32731,13 +32731,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32804,22 +32804,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32856,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32880,16 +32880,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32941,19 +32941,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32968,13 +32968,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33041,22 +33041,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,16 +33093,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33117,16 +33117,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33178,19 +33178,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33205,13 +33205,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33278,22 +33278,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33330,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33354,16 +33354,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33415,19 +33415,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33442,13 +33442,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33515,22 +33515,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,16 +33567,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33591,16 +33591,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33652,19 +33652,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33679,13 +33679,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33752,22 +33752,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33804,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33828,16 +33828,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33889,19 +33889,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33916,13 +33916,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33989,22 +33989,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,16 +34041,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34065,16 +34065,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34126,19 +34126,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34153,13 +34153,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34226,22 +34226,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34278,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34302,16 +34302,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34363,19 +34363,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34390,13 +34390,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34463,22 +34463,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,16 +34515,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34539,16 +34539,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35422,10 +35422,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35498,13 +35498,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35583,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L14" t="n">
         <v>421.5361394435301</v>
@@ -35659,10 +35659,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35738,13 +35738,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35820,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060969</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
         <v>478.8956552492236</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
         <v>297.2230414343419</v>
@@ -36133,10 +36133,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36212,7 +36212,7 @@
         <v>515.9012490932197</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36294,7 +36294,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36446,16 +36446,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36689,7 +36689,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060959</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36920,13 +36920,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37157,13 +37157,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>401.1632560839191</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37394,13 +37394,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37631,13 +37631,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
         <v>173.8110948137341</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M42" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060961</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38105,16 +38105,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
